--- a/results/mod3.antielite_salience.slopes.eff.COMB.xlsx
+++ b/results/mod3.antielite_salience.slopes.eff.COMB.xlsx
@@ -422,25 +422,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.191684794549893</v>
+        <v>-0.191682633356236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0434220228802144</v>
+        <v>0.0434218687364219</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.276790395530987</v>
+        <v>-0.276787932221049</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.106579193568799</v>
+        <v>-0.106577334491424</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.41446026314071</v>
+        <v>-4.41442616207475</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0000101262313263557</v>
+        <v>0.0000101278275460334</v>
       </c>
     </row>
     <row r="3">
@@ -451,25 +451,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0260802873222323</v>
+        <v>-0.0260801916680039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.044410340967208</v>
+        <v>0.0444101923473992</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.113122956159104</v>
+        <v>-0.113122569215403</v>
       </c>
       <c r="G3" t="n">
-        <v>0.060962381514639</v>
+        <v>0.0609621858793949</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.587257083693405</v>
+        <v>-0.587256895083708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.55703105948728</v>
+        <v>0.557031186140532</v>
       </c>
     </row>
     <row r="4">
@@ -480,25 +480,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.167151166863141</v>
+        <v>0.167148898175566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.090149430338559</v>
+        <v>0.0901490668641719</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00953846982723677</v>
+        <v>-0.00954002611810384</v>
       </c>
       <c r="G4" t="n">
-        <v>0.343840803553519</v>
+        <v>0.343837822469236</v>
       </c>
       <c r="H4" t="n">
-        <v>1.85415666228172</v>
+        <v>1.85413897214722</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0637167502054948</v>
+        <v>0.0637192803684129</v>
       </c>
     </row>
     <row r="5">
@@ -509,25 +509,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.052453312770484</v>
+        <v>0.0524513553846706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0508096697111687</v>
+        <v>0.0508094929126505</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0471318099297823</v>
+        <v>-0.0471334207968676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15203843547075</v>
+        <v>0.152036131566209</v>
       </c>
       <c r="H5" t="n">
-        <v>1.03234902074071</v>
+        <v>1.03231408892119</v>
       </c>
       <c r="I5" t="n">
-        <v>0.301908644495204</v>
+        <v>0.301925003075947</v>
       </c>
     </row>
     <row r="6">
@@ -538,25 +538,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.023864388544393</v>
+        <v>-0.0238642300257977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0395797224472639</v>
+        <v>0.0395795826044815</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.101439219059122</v>
+        <v>-0.101438786453709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0537104419703357</v>
+        <v>0.053710326402114</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.602944817922611</v>
+        <v>-0.602942943190503</v>
       </c>
       <c r="I6" t="n">
-        <v>0.546545399571308</v>
+        <v>0.546546646774701</v>
       </c>
     </row>
     <row r="7">
@@ -567,25 +567,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0532700776459391</v>
+        <v>-0.0532684531475568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0590324024294124</v>
+        <v>0.0590321042086518</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.168971460328462</v>
+        <v>-0.16896925132813</v>
       </c>
       <c r="G7" t="n">
-        <v>0.062431305036584</v>
+        <v>0.0624323450330161</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.902387086645108</v>
+        <v>-0.902364126463744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.366851278410455</v>
+        <v>0.366863471010942</v>
       </c>
     </row>
   </sheetData>
